--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.1251740271677</v>
+        <v>4.439248</v>
       </c>
       <c r="H2">
-        <v>3.1251740271677</v>
+        <v>13.317744</v>
       </c>
       <c r="I2">
-        <v>0.2605090450255645</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="J2">
-        <v>0.2605090450255645</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>85.6006069268781</v>
+        <v>0.6646083333333334</v>
       </c>
       <c r="N2">
-        <v>85.6006069268781</v>
+        <v>1.993825</v>
       </c>
       <c r="O2">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="P2">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="Q2">
-        <v>267.5167934776709</v>
+        <v>2.950361214533333</v>
       </c>
       <c r="R2">
-        <v>267.5167934776709</v>
+        <v>26.5532509308</v>
       </c>
       <c r="S2">
-        <v>0.1865252726852376</v>
+        <v>0.001761214965149606</v>
       </c>
       <c r="T2">
-        <v>0.1865252726852376</v>
+        <v>0.001761214965149606</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.1251740271677</v>
+        <v>4.439248</v>
       </c>
       <c r="H3">
-        <v>3.1251740271677</v>
+        <v>13.317744</v>
       </c>
       <c r="I3">
-        <v>0.2605090450255645</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="J3">
-        <v>0.2605090450255645</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.9528028770612</v>
+        <v>85.826024</v>
       </c>
       <c r="N3">
-        <v>33.9528028770612</v>
+        <v>257.478072</v>
       </c>
       <c r="O3">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="P3">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="Q3">
-        <v>106.1084177009364</v>
+        <v>381.003005389952</v>
       </c>
       <c r="R3">
-        <v>106.1084177009364</v>
+        <v>3429.027048509568</v>
       </c>
       <c r="S3">
-        <v>0.07398377234032692</v>
+        <v>0.2274393357512658</v>
       </c>
       <c r="T3">
-        <v>0.07398377234032692</v>
+        <v>0.2274393357512658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.75842309943972</v>
+        <v>4.439248</v>
       </c>
       <c r="H4">
-        <v>3.75842309943972</v>
+        <v>13.317744</v>
       </c>
       <c r="I4">
-        <v>0.3132955809582262</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="J4">
-        <v>0.3132955809582262</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>85.6006069268781</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N4">
-        <v>85.6006069268781</v>
+        <v>0.027947</v>
       </c>
       <c r="O4">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809587E-05</v>
       </c>
       <c r="P4">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809588E-05</v>
       </c>
       <c r="Q4">
-        <v>321.7232984000383</v>
+        <v>0.04135455461866667</v>
       </c>
       <c r="R4">
-        <v>321.7232984000383</v>
+        <v>0.372190991568</v>
       </c>
       <c r="S4">
-        <v>0.2243205937958063</v>
+        <v>2.468655706044212E-05</v>
       </c>
       <c r="T4">
-        <v>0.2243205937958063</v>
+        <v>2.468655706044213E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.75842309943972</v>
+        <v>4.439248</v>
       </c>
       <c r="H5">
-        <v>3.75842309943972</v>
+        <v>13.317744</v>
       </c>
       <c r="I5">
-        <v>0.3132955809582262</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="J5">
-        <v>0.3132955809582262</v>
+        <v>0.3193177756555054</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.9528028770612</v>
+        <v>33.99712866666667</v>
       </c>
       <c r="N5">
-        <v>33.9528028770612</v>
+        <v>101.991386</v>
       </c>
       <c r="O5">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="P5">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="Q5">
-        <v>127.6089986238702</v>
+        <v>150.9216854392427</v>
       </c>
       <c r="R5">
-        <v>127.6089986238702</v>
+        <v>1358.295168953184</v>
       </c>
       <c r="S5">
-        <v>0.08897498716241989</v>
+        <v>0.09009253838202951</v>
       </c>
       <c r="T5">
-        <v>0.08897498716241989</v>
+        <v>0.09009253838202951</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.39611698161782</v>
+        <v>3.893859666666666</v>
       </c>
       <c r="H6">
-        <v>1.39611698161782</v>
+        <v>11.681579</v>
       </c>
       <c r="I6">
-        <v>0.1163778715884341</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="J6">
-        <v>0.1163778715884341</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>85.6006069268781</v>
+        <v>0.6646083333333334</v>
       </c>
       <c r="N6">
-        <v>85.6006069268781</v>
+        <v>1.993825</v>
       </c>
       <c r="O6">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="P6">
-        <v>0.7160030572717094</v>
+        <v>0.005515555660921567</v>
       </c>
       <c r="Q6">
-        <v>119.5084609674065</v>
+        <v>2.587891583297222</v>
       </c>
       <c r="R6">
-        <v>119.5084609674065</v>
+        <v>23.291024249675</v>
       </c>
       <c r="S6">
-        <v>0.08332691185609321</v>
+        <v>0.001544839107237484</v>
       </c>
       <c r="T6">
-        <v>0.08332691185609321</v>
+        <v>0.001544839107237484</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.39611698161782</v>
+        <v>3.893859666666666</v>
       </c>
       <c r="H7">
-        <v>1.39611698161782</v>
+        <v>11.681579</v>
       </c>
       <c r="I7">
-        <v>0.1163778715884341</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="J7">
-        <v>0.1163778715884341</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.9528028770612</v>
+        <v>85.826024</v>
       </c>
       <c r="N7">
-        <v>33.9528028770612</v>
+        <v>257.478072</v>
       </c>
       <c r="O7">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="P7">
-        <v>0.2839969427282906</v>
+        <v>0.7122664414292983</v>
       </c>
       <c r="Q7">
-        <v>47.40208467018752</v>
+        <v>334.1944932039653</v>
       </c>
       <c r="R7">
-        <v>47.40208467018752</v>
+        <v>3007.750438835688</v>
       </c>
       <c r="S7">
-        <v>0.03305095973234087</v>
+        <v>0.1994970445659517</v>
       </c>
       <c r="T7">
-        <v>0.03305095973234087</v>
+        <v>0.1994970445659517</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.71669863383912</v>
+        <v>3.893859666666666</v>
       </c>
       <c r="H8">
-        <v>3.71669863383912</v>
+        <v>11.681579</v>
       </c>
       <c r="I8">
-        <v>0.3098175024277754</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="J8">
-        <v>0.3098175024277754</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>85.6006069268781</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N8">
-        <v>85.6006069268781</v>
+        <v>0.027947</v>
       </c>
       <c r="O8">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809587E-05</v>
       </c>
       <c r="P8">
-        <v>0.7160030572717094</v>
+        <v>7.731031261809588E-05</v>
       </c>
       <c r="Q8">
-        <v>318.1516588209274</v>
+        <v>0.03627389870144444</v>
       </c>
       <c r="R8">
-        <v>318.1516588209274</v>
+        <v>0.326465088313</v>
       </c>
       <c r="S8">
-        <v>0.2218302789345724</v>
+        <v>2.165366495553319E-05</v>
       </c>
       <c r="T8">
-        <v>0.2218302789345724</v>
+        <v>2.16536649555332E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.71669863383912</v>
+        <v>3.893859666666666</v>
       </c>
       <c r="H9">
-        <v>3.71669863383912</v>
+        <v>11.681579</v>
       </c>
       <c r="I9">
-        <v>0.3098175024277754</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="J9">
-        <v>0.3098175024277754</v>
+        <v>0.2800876651799331</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.9528028770612</v>
+        <v>33.99712866666667</v>
       </c>
       <c r="N9">
-        <v>33.9528028770612</v>
+        <v>101.991386</v>
       </c>
       <c r="O9">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="P9">
-        <v>0.2839969427282906</v>
+        <v>0.2821406925971621</v>
       </c>
       <c r="Q9">
-        <v>126.1923360681823</v>
+        <v>132.3800480976104</v>
       </c>
       <c r="R9">
-        <v>126.1923360681823</v>
+        <v>1191.420432878494</v>
       </c>
       <c r="S9">
-        <v>0.08798722349320295</v>
+        <v>0.07902412784178835</v>
       </c>
       <c r="T9">
-        <v>0.08798722349320295</v>
+        <v>0.07902412784178836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.735205333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.205616</v>
+      </c>
+      <c r="I10">
+        <v>0.1248143621049263</v>
+      </c>
+      <c r="J10">
+        <v>0.1248143621049263</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.6646083333333334</v>
+      </c>
+      <c r="N10">
+        <v>1.993825</v>
+      </c>
+      <c r="O10">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="P10">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="Q10">
+        <v>1.153231924577778</v>
+      </c>
+      <c r="R10">
+        <v>10.3790873212</v>
+      </c>
+      <c r="S10">
+        <v>0.0006884205614721404</v>
+      </c>
+      <c r="T10">
+        <v>0.0006884205614721405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.735205333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.205616</v>
+      </c>
+      <c r="I11">
+        <v>0.1248143621049263</v>
+      </c>
+      <c r="J11">
+        <v>0.1248143621049263</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>85.826024</v>
+      </c>
+      <c r="N11">
+        <v>257.478072</v>
+      </c>
+      <c r="O11">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="P11">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="Q11">
+        <v>148.9257745835947</v>
+      </c>
+      <c r="R11">
+        <v>1340.331971252352</v>
+      </c>
+      <c r="S11">
+        <v>0.08890108153574369</v>
+      </c>
+      <c r="T11">
+        <v>0.08890108153574371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.735205333333333</v>
+      </c>
+      <c r="H12">
+        <v>5.205616</v>
+      </c>
+      <c r="I12">
+        <v>0.1248143621049263</v>
+      </c>
+      <c r="J12">
+        <v>0.1248143621049263</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.009315666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.027947</v>
+      </c>
+      <c r="O12">
+        <v>7.731031261809587E-05</v>
+      </c>
+      <c r="P12">
+        <v>7.731031261809588E-05</v>
+      </c>
+      <c r="Q12">
+        <v>0.01616459448355555</v>
+      </c>
+      <c r="R12">
+        <v>0.145481350352</v>
+      </c>
+      <c r="S12">
+        <v>9.649437353560069E-06</v>
+      </c>
+      <c r="T12">
+        <v>9.649437353560071E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.735205333333333</v>
+      </c>
+      <c r="H13">
+        <v>5.205616</v>
+      </c>
+      <c r="I13">
+        <v>0.1248143621049263</v>
+      </c>
+      <c r="J13">
+        <v>0.1248143621049263</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>33.99712866666667</v>
+      </c>
+      <c r="N13">
+        <v>101.991386</v>
+      </c>
+      <c r="O13">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="P13">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="Q13">
+        <v>58.99199898041956</v>
+      </c>
+      <c r="R13">
+        <v>530.927990823776</v>
+      </c>
+      <c r="S13">
+        <v>0.03521521057035688</v>
+      </c>
+      <c r="T13">
+        <v>0.03521521057035688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.833976</v>
+      </c>
+      <c r="H14">
+        <v>11.501928</v>
+      </c>
+      <c r="I14">
+        <v>0.2757801970596353</v>
+      </c>
+      <c r="J14">
+        <v>0.2757801970596353</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.6646083333333334</v>
+      </c>
+      <c r="N14">
+        <v>1.993825</v>
+      </c>
+      <c r="O14">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="P14">
+        <v>0.005515555660921567</v>
+      </c>
+      <c r="Q14">
+        <v>2.5480923994</v>
+      </c>
+      <c r="R14">
+        <v>22.9328315946</v>
+      </c>
+      <c r="S14">
+        <v>0.001521081027062337</v>
+      </c>
+      <c r="T14">
+        <v>0.001521081027062337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.833976</v>
+      </c>
+      <c r="H15">
+        <v>11.501928</v>
+      </c>
+      <c r="I15">
+        <v>0.2757801970596353</v>
+      </c>
+      <c r="J15">
+        <v>0.2757801970596353</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>85.826024</v>
+      </c>
+      <c r="N15">
+        <v>257.478072</v>
+      </c>
+      <c r="O15">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="P15">
+        <v>0.7122664414292983</v>
+      </c>
+      <c r="Q15">
+        <v>329.054916191424</v>
+      </c>
+      <c r="R15">
+        <v>2961.494245722816</v>
+      </c>
+      <c r="S15">
+        <v>0.1964289795763371</v>
+      </c>
+      <c r="T15">
+        <v>0.1964289795763371</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.833976</v>
+      </c>
+      <c r="H16">
+        <v>11.501928</v>
+      </c>
+      <c r="I16">
+        <v>0.2757801970596353</v>
+      </c>
+      <c r="J16">
+        <v>0.2757801970596353</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.009315666666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.027947</v>
+      </c>
+      <c r="O16">
+        <v>7.731031261809587E-05</v>
+      </c>
+      <c r="P16">
+        <v>7.731031261809588E-05</v>
+      </c>
+      <c r="Q16">
+        <v>0.035716042424</v>
+      </c>
+      <c r="R16">
+        <v>0.321444381816</v>
+      </c>
+      <c r="S16">
+        <v>2.132065324856049E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.132065324856049E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.833976</v>
+      </c>
+      <c r="H17">
+        <v>11.501928</v>
+      </c>
+      <c r="I17">
+        <v>0.2757801970596353</v>
+      </c>
+      <c r="J17">
+        <v>0.2757801970596353</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.99712866666667</v>
+      </c>
+      <c r="N17">
+        <v>101.991386</v>
+      </c>
+      <c r="O17">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="P17">
+        <v>0.2821406925971621</v>
+      </c>
+      <c r="Q17">
+        <v>130.344175376912</v>
+      </c>
+      <c r="R17">
+        <v>1173.097578392208</v>
+      </c>
+      <c r="S17">
+        <v>0.07780881580298735</v>
+      </c>
+      <c r="T17">
+        <v>0.07780881580298735</v>
       </c>
     </row>
   </sheetData>
